--- a/uploads/parallel_classes.xlsx
+++ b/uploads/parallel_classes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float_working2\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8936DACE-DE09-450D-8FB9-575C33D66516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349900DC-BEEA-4DF8-9DE0-B4A5E7C13B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C330C10B-EC4B-49AB-845A-3F2FB1087177}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="39">
   <si>
     <t>MONDAY</t>
   </si>
@@ -92,9 +92,6 @@
     <t>S8_ME</t>
   </si>
   <si>
-    <t>MNM  (T)</t>
-  </si>
-  <si>
     <t>QM</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>period</t>
-  </si>
-  <si>
     <t>batch</t>
   </si>
   <si>
@@ -141,6 +135,27 @@
   </si>
   <si>
     <t xml:space="preserve">MNM </t>
+  </si>
+  <si>
+    <t>slot</t>
+  </si>
+  <si>
+    <t>10.00_-_10.45</t>
+  </si>
+  <si>
+    <t>8.00_-_8.45</t>
+  </si>
+  <si>
+    <t>9.10_-_9.55</t>
+  </si>
+  <si>
+    <t>10.50_-_11.35</t>
+  </si>
+  <si>
+    <t>11.55_-_12.40</t>
+  </si>
+  <si>
+    <t>12.45_-_1.30</t>
   </si>
 </sst>
 </file>
@@ -520,41 +535,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D0D03-81CF-468A-A9D4-BE2ADA3ECDE1}">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -562,16 +580,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -579,16 +597,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -596,16 +614,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>3</v>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -613,16 +631,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="C6" t="s">
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -630,16 +648,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="C7" t="s">
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -647,16 +665,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -664,16 +682,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -681,16 +699,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>3</v>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -698,16 +716,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>3</v>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -715,16 +733,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>4</v>
+      <c r="C12" t="s">
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -732,16 +750,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="C13" t="s">
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -749,16 +767,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -766,16 +784,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -783,16 +801,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>6</v>
+      <c r="C16" t="s">
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -800,16 +818,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>6</v>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -817,16 +835,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -834,16 +852,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -851,16 +869,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>3</v>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -868,16 +886,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>3</v>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -885,16 +903,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>4</v>
+      <c r="C22" t="s">
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
         <v>1</v>
@@ -902,16 +920,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>4</v>
+      <c r="C23" t="s">
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -919,16 +937,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>5</v>
+      <c r="C24" t="s">
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -936,16 +954,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
-        <v>5</v>
+      <c r="C25" t="s">
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -953,16 +971,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>6</v>
+      <c r="C26" t="s">
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -970,16 +988,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>6</v>
+      <c r="C27" t="s">
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -987,16 +1005,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>5</v>
+      <c r="C28" t="s">
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -1004,16 +1022,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
-        <v>5</v>
+      <c r="C29" t="s">
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -1021,16 +1039,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30">
-        <v>6</v>
+      <c r="C30" t="s">
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -1038,16 +1056,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>6</v>
+      <c r="C31" t="s">
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -1060,11 +1078,11 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32">
-        <v>3</v>
+      <c r="C32" t="s">
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1077,11 +1095,11 @@
       <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="C33">
-        <v>3</v>
+      <c r="C33" t="s">
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -1094,11 +1112,11 @@
       <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="C34">
-        <v>5</v>
+      <c r="C34" t="s">
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1111,11 +1129,11 @@
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>5</v>
+      <c r="C35" t="s">
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1128,11 +1146,11 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="C36" t="s">
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1145,11 +1163,11 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1162,11 +1180,11 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>6</v>
+      <c r="C38" t="s">
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -1179,11 +1197,11 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39">
-        <v>6</v>
+      <c r="C39" t="s">
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -1196,11 +1214,11 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C40">
-        <v>2</v>
+      <c r="C40" t="s">
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -1213,11 +1231,11 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41">
-        <v>2</v>
+      <c r="C41" t="s">
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1230,11 +1248,11 @@
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C42">
-        <v>4</v>
+      <c r="C42" t="s">
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -1247,11 +1265,11 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C43">
-        <v>4</v>
+      <c r="C43" t="s">
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -1264,11 +1282,11 @@
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="s">
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -1281,11 +1299,11 @@
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" t="s">
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -1298,11 +1316,11 @@
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46">
-        <v>4</v>
+      <c r="C46" t="s">
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -1315,11 +1333,11 @@
       <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C47">
-        <v>4</v>
+      <c r="C47" t="s">
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
         <v>15</v>
@@ -1332,11 +1350,11 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -1349,11 +1367,11 @@
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="C49" t="s">
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -1366,11 +1384,11 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50">
-        <v>2</v>
+      <c r="C50" t="s">
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -1383,11 +1401,11 @@
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>2</v>
+      <c r="C51" t="s">
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -1400,14 +1418,14 @@
       <c r="B52" t="s">
         <v>0</v>
       </c>
-      <c r="C52">
-        <v>3</v>
+      <c r="C52" t="s">
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,14 +1435,14 @@
       <c r="B53" t="s">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>3</v>
+      <c r="C53" t="s">
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1434,14 +1452,14 @@
       <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54">
-        <v>5</v>
+      <c r="C54" t="s">
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,14 +1469,14 @@
       <c r="B55" t="s">
         <v>3</v>
       </c>
-      <c r="C55">
-        <v>5</v>
+      <c r="C55" t="s">
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,14 +1486,14 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="C56">
-        <v>3</v>
+      <c r="C56" t="s">
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,45 +1503,45 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="C57">
-        <v>3</v>
+      <c r="C57" t="s">
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
-      <c r="C58">
-        <v>2</v>
+      <c r="C58" t="s">
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
-      <c r="C59">
-        <v>2</v>
+      <c r="C59" t="s">
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -1531,33 +1549,33 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
-      <c r="C60">
-        <v>4</v>
+      <c r="C60" t="s">
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
-      <c r="C61">
-        <v>4</v>
+      <c r="C61" t="s">
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -1565,33 +1583,33 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="C62" t="s">
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="C63" t="s">
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -1599,203 +1617,203 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>2</v>
+      <c r="C64" t="s">
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
-      <c r="C65">
-        <v>2</v>
+      <c r="C65" t="s">
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
       </c>
-      <c r="C66">
-        <v>3</v>
+      <c r="C66" t="s">
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
-      <c r="C67">
-        <v>3</v>
+      <c r="C67" t="s">
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="C68">
-        <v>4</v>
+      <c r="C68" t="s">
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
-      <c r="C69">
-        <v>4</v>
+      <c r="C69" t="s">
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="C70" t="s">
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="C71" t="s">
+        <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72">
-        <v>3</v>
+      <c r="C72" t="s">
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="C73">
-        <v>3</v>
+      <c r="C73" t="s">
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
-      <c r="C74">
-        <v>4</v>
+      <c r="C74" t="s">
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
-      <c r="C75">
-        <v>4</v>
+      <c r="C75" t="s">
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -1803,33 +1821,33 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C76">
-        <v>6</v>
+      <c r="C76" t="s">
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
-      <c r="C77">
-        <v>6</v>
+      <c r="C77" t="s">
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1837,172 +1855,172 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="C78" t="s">
+        <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="C79" t="s">
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
-      <c r="C80">
-        <v>3</v>
+      <c r="C80" t="s">
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-      <c r="C81">
-        <v>3</v>
+      <c r="C81" t="s">
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
-      <c r="C82">
-        <v>2</v>
+      <c r="C82" t="s">
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83">
-        <v>2</v>
+      <c r="C83" t="s">
+        <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
-      <c r="C84">
-        <v>3</v>
+      <c r="C84" t="s">
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85">
-        <v>3</v>
+      <c r="C85" t="s">
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
-      <c r="C86">
-        <v>4</v>
+      <c r="C86" t="s">
+        <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87">
-        <v>4</v>
+      <c r="C87" t="s">
+        <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
